--- a/data/raw/comptages_terrain/activites_loisirs/us_med_pnmcca_observatoire_comptage_terrain_activites_loisirs_2021-08-18.xlsx
+++ b/data/raw/comptages_terrain/activites_loisirs/us_med_pnmcca_observatoire_comptage_terrain_activites_loisirs_2021-08-18.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12180" activeTab="4"/>
+    <workbookView windowWidth="18345" windowHeight="12180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="22" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="38">
   <si>
     <t>Secteur</t>
   </si>
@@ -153,11 +153,9 @@
     <t>2 pers/K</t>
   </si>
   <si>
-    <t>1 surf electrique</t>
-  </si>
-  <si>
     <t>1 pers/P
-2 pers/J</t>
+2 pers/J
+Autre motonautique :  1 surf electrique</t>
   </si>
 </sst>
 </file>
@@ -994,7 +992,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1075,6 +1073,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1537,66 +1538,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="30">
         <v>44426</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="30">
         <v>44426</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="30">
         <v>44426</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="30">
         <v>44426</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3816,8 +3817,8 @@
   <sheetPr/>
   <dimension ref="A1:Q230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Q2"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -4019,7 +4020,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="69.75" customHeight="1" spans="1:17">
+    <row r="5" s="1" customFormat="1" ht="108" customHeight="1" spans="1:17">
       <c r="A5" s="12">
         <v>0.625</v>
       </c>
@@ -4050,8 +4051,8 @@
       <c r="J5" s="13">
         <v>0</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>37</v>
+      <c r="K5" s="13">
+        <v>1</v>
       </c>
       <c r="L5" s="13">
         <v>0</v>
@@ -4068,8 +4069,8 @@
       <c r="P5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="13" t="s">
-        <v>38</v>
+      <c r="Q5" s="28" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="69.75" customHeight="1" spans="1:17">
